--- a/models/ngspice/testing/180MCU_SPICE_DATA/Diode/diode_nw2ps_03v3_cv.nl_out.xlsx
+++ b/models/ngspice/testing/180MCU_SPICE_DATA/Diode/diode_nw2ps_03v3_cv.nl_out.xlsx
@@ -22,10 +22,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="15">
   <si>
-    <t xml:space="preserve">W (um)</t>
+    <t xml:space="preserve">Area</t>
   </si>
   <si>
-    <t xml:space="preserve">L (um)</t>
+    <t xml:space="preserve">Pj</t>
   </si>
   <si>
     <t xml:space="preserve">corners</t>
@@ -113,13 +113,13 @@
       <family val="2"/>
     </font>
     <font>
-      <b val="true"/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
+      <b val="true"/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -268,7 +268,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart81.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -304,7 +304,7 @@
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
-        <a:ln>
+        <a:ln w="0">
           <a:noFill/>
         </a:ln>
       </c:spPr>
@@ -345,7 +345,7 @@
           </c:marker>
           <c:dLbls>
             <c:txPr>
-              <a:bodyPr/>
+              <a:bodyPr wrap="square"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -366,6 +366,11 @@
             <c:showPercent val="0"/>
             <c:separator>; </c:separator>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:xVal>
             <c:numRef>
@@ -520,7 +525,7 @@
           </c:marker>
           <c:dLbls>
             <c:txPr>
-              <a:bodyPr/>
+              <a:bodyPr wrap="square"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -541,6 +546,11 @@
             <c:showPercent val="0"/>
             <c:separator>; </c:separator>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:xVal>
             <c:numRef>
@@ -695,7 +705,7 @@
           </c:marker>
           <c:dLbls>
             <c:txPr>
-              <a:bodyPr/>
+              <a:bodyPr wrap="square"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -716,6 +726,11 @@
             <c:showPercent val="0"/>
             <c:separator>; </c:separator>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:xVal>
             <c:numRef>
@@ -839,11 +854,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="92019570"/>
-        <c:axId val="85102806"/>
+        <c:axId val="5077891"/>
+        <c:axId val="56172171"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="92019570"/>
+        <c:axId val="5077891"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.5"/>
@@ -902,7 +917,7 @@
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
-            <a:ln>
+            <a:ln w="0">
               <a:noFill/>
             </a:ln>
           </c:spPr>
@@ -933,13 +948,13 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="85102806"/>
+        <c:crossAx val="56172171"/>
         <c:crosses val="min"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.5"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="85102806"/>
+        <c:axId val="56172171"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="38"/>
@@ -998,7 +1013,7 @@
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
-            <a:ln>
+            <a:ln w="0">
               <a:noFill/>
             </a:ln>
           </c:spPr>
@@ -1029,7 +1044,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="92019570"/>
+        <c:crossAx val="5077891"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1037,7 +1052,7 @@
         <a:solidFill>
           <a:srgbClr val="ffffff"/>
         </a:solidFill>
-        <a:ln>
+        <a:ln w="0">
           <a:solidFill>
             <a:srgbClr val="000000"/>
           </a:solidFill>
@@ -1049,7 +1064,7 @@
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
-        <a:ln>
+        <a:ln w="0">
           <a:noFill/>
         </a:ln>
       </c:spPr>
@@ -1085,7 +1100,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart82.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1121,7 +1136,7 @@
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
-        <a:ln>
+        <a:ln w="0">
           <a:noFill/>
         </a:ln>
       </c:spPr>
@@ -1162,7 +1177,7 @@
           </c:marker>
           <c:dLbls>
             <c:txPr>
-              <a:bodyPr/>
+              <a:bodyPr wrap="square"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -1183,6 +1198,11 @@
             <c:showPercent val="0"/>
             <c:separator>; </c:separator>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:xVal>
             <c:numRef>
@@ -1337,7 +1357,7 @@
           </c:marker>
           <c:dLbls>
             <c:txPr>
-              <a:bodyPr/>
+              <a:bodyPr wrap="square"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -1358,6 +1378,11 @@
             <c:showPercent val="0"/>
             <c:separator>; </c:separator>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:xVal>
             <c:numRef>
@@ -1512,7 +1537,7 @@
           </c:marker>
           <c:dLbls>
             <c:txPr>
-              <a:bodyPr/>
+              <a:bodyPr wrap="square"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -1533,6 +1558,11 @@
             <c:showPercent val="0"/>
             <c:separator>; </c:separator>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:xVal>
             <c:numRef>
@@ -1656,11 +1686,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="57780744"/>
-        <c:axId val="72972901"/>
+        <c:axId val="45685126"/>
+        <c:axId val="7607859"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="57780744"/>
+        <c:axId val="45685126"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.5"/>
@@ -1719,7 +1749,7 @@
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
-            <a:ln>
+            <a:ln w="0">
               <a:noFill/>
             </a:ln>
           </c:spPr>
@@ -1750,13 +1780,13 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="72972901"/>
+        <c:crossAx val="7607859"/>
         <c:crosses val="min"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.5"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="72972901"/>
+        <c:axId val="7607859"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="44"/>
@@ -1815,7 +1845,7 @@
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
-            <a:ln>
+            <a:ln w="0">
               <a:noFill/>
             </a:ln>
           </c:spPr>
@@ -1846,7 +1876,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="57780744"/>
+        <c:crossAx val="45685126"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1854,7 +1884,7 @@
         <a:solidFill>
           <a:srgbClr val="ffffff"/>
         </a:solidFill>
-        <a:ln>
+        <a:ln w="0">
           <a:solidFill>
             <a:srgbClr val="000000"/>
           </a:solidFill>
@@ -1866,7 +1896,7 @@
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
-        <a:ln>
+        <a:ln w="0">
           <a:noFill/>
         </a:ln>
       </c:spPr>
@@ -1902,7 +1932,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart83.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1938,7 +1968,7 @@
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
-        <a:ln>
+        <a:ln w="0">
           <a:noFill/>
         </a:ln>
       </c:spPr>
@@ -1979,7 +2009,7 @@
           </c:marker>
           <c:dLbls>
             <c:txPr>
-              <a:bodyPr/>
+              <a:bodyPr wrap="square"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -2000,6 +2030,11 @@
             <c:showPercent val="0"/>
             <c:separator>; </c:separator>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:xVal>
             <c:numRef>
@@ -2154,7 +2189,7 @@
           </c:marker>
           <c:dLbls>
             <c:txPr>
-              <a:bodyPr/>
+              <a:bodyPr wrap="square"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -2175,6 +2210,11 @@
             <c:showPercent val="0"/>
             <c:separator>; </c:separator>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:xVal>
             <c:numRef>
@@ -2329,7 +2369,7 @@
           </c:marker>
           <c:dLbls>
             <c:txPr>
-              <a:bodyPr/>
+              <a:bodyPr wrap="square"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -2350,6 +2390,11 @@
             <c:showPercent val="0"/>
             <c:separator>; </c:separator>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:xVal>
             <c:numRef>
@@ -2473,11 +2518,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="10632861"/>
-        <c:axId val="74086687"/>
+        <c:axId val="99404813"/>
+        <c:axId val="47786942"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="10632861"/>
+        <c:axId val="99404813"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.5"/>
@@ -2536,7 +2581,7 @@
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
-            <a:ln>
+            <a:ln w="0">
               <a:noFill/>
             </a:ln>
           </c:spPr>
@@ -2567,13 +2612,13 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="74086687"/>
+        <c:crossAx val="47786942"/>
         <c:crosses val="min"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.5"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="74086687"/>
+        <c:axId val="47786942"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="50"/>
@@ -2632,7 +2677,7 @@
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
-            <a:ln>
+            <a:ln w="0">
               <a:noFill/>
             </a:ln>
           </c:spPr>
@@ -2663,7 +2708,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="10632861"/>
+        <c:crossAx val="99404813"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="5"/>
@@ -2672,7 +2717,7 @@
         <a:solidFill>
           <a:srgbClr val="ffffff"/>
         </a:solidFill>
-        <a:ln>
+        <a:ln w="0">
           <a:solidFill>
             <a:srgbClr val="000000"/>
           </a:solidFill>
@@ -2684,7 +2729,7 @@
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
-        <a:ln>
+        <a:ln w="0">
           <a:noFill/>
         </a:ln>
       </c:spPr>
@@ -2720,7 +2765,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart84.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2756,7 +2801,7 @@
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
-        <a:ln>
+        <a:ln w="0">
           <a:noFill/>
         </a:ln>
       </c:spPr>
@@ -2797,7 +2842,7 @@
           </c:marker>
           <c:dLbls>
             <c:txPr>
-              <a:bodyPr/>
+              <a:bodyPr wrap="square"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -2818,6 +2863,11 @@
             <c:showPercent val="0"/>
             <c:separator>; </c:separator>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:xVal>
             <c:numRef>
@@ -2972,7 +3022,7 @@
           </c:marker>
           <c:dLbls>
             <c:txPr>
-              <a:bodyPr/>
+              <a:bodyPr wrap="square"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -2993,6 +3043,11 @@
             <c:showPercent val="0"/>
             <c:separator>; </c:separator>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:xVal>
             <c:numRef>
@@ -3147,7 +3202,7 @@
           </c:marker>
           <c:dLbls>
             <c:txPr>
-              <a:bodyPr/>
+              <a:bodyPr wrap="square"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -3168,6 +3223,11 @@
             <c:showPercent val="0"/>
             <c:separator>; </c:separator>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:xVal>
             <c:numRef>
@@ -3291,11 +3351,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="97365497"/>
-        <c:axId val="8339262"/>
+        <c:axId val="42902294"/>
+        <c:axId val="35764667"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="97365497"/>
+        <c:axId val="42902294"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.5"/>
@@ -3354,7 +3414,7 @@
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
-            <a:ln>
+            <a:ln w="0">
               <a:noFill/>
             </a:ln>
           </c:spPr>
@@ -3385,13 +3445,13 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="8339262"/>
+        <c:crossAx val="35764667"/>
         <c:crosses val="min"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.5"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="8339262"/>
+        <c:axId val="35764667"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="55"/>
@@ -3450,7 +3510,7 @@
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
-            <a:ln>
+            <a:ln w="0">
               <a:noFill/>
             </a:ln>
           </c:spPr>
@@ -3481,7 +3541,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="97365497"/>
+        <c:crossAx val="42902294"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="5"/>
@@ -3490,7 +3550,7 @@
         <a:solidFill>
           <a:srgbClr val="ffffff"/>
         </a:solidFill>
-        <a:ln>
+        <a:ln w="0">
           <a:solidFill>
             <a:srgbClr val="000000"/>
           </a:solidFill>
@@ -3502,7 +3562,7 @@
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
-        <a:ln>
+        <a:ln w="0">
           <a:noFill/>
         </a:ln>
       </c:spPr>
@@ -3538,7 +3598,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart85.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3574,7 +3634,7 @@
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
-        <a:ln>
+        <a:ln w="0">
           <a:noFill/>
         </a:ln>
       </c:spPr>
@@ -3615,7 +3675,7 @@
           </c:marker>
           <c:dLbls>
             <c:txPr>
-              <a:bodyPr/>
+              <a:bodyPr wrap="square"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -3636,6 +3696,11 @@
             <c:showPercent val="0"/>
             <c:separator>; </c:separator>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:xVal>
             <c:numRef>
@@ -3790,7 +3855,7 @@
           </c:marker>
           <c:dLbls>
             <c:txPr>
-              <a:bodyPr/>
+              <a:bodyPr wrap="square"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -3811,6 +3876,11 @@
             <c:showPercent val="0"/>
             <c:separator>; </c:separator>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:xVal>
             <c:numRef>
@@ -3965,7 +4035,7 @@
           </c:marker>
           <c:dLbls>
             <c:txPr>
-              <a:bodyPr/>
+              <a:bodyPr wrap="square"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -3986,6 +4056,11 @@
             <c:showPercent val="0"/>
             <c:separator>; </c:separator>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:xVal>
             <c:numRef>
@@ -4109,11 +4184,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="68725812"/>
-        <c:axId val="72573307"/>
+        <c:axId val="45017998"/>
+        <c:axId val="68622847"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="68725812"/>
+        <c:axId val="45017998"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.5"/>
@@ -4172,7 +4247,7 @@
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
-            <a:ln>
+            <a:ln w="0">
               <a:noFill/>
             </a:ln>
           </c:spPr>
@@ -4203,13 +4278,13 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="72573307"/>
+        <c:crossAx val="68622847"/>
         <c:crosses val="min"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.5"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="72573307"/>
+        <c:axId val="68622847"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="70"/>
@@ -4268,7 +4343,7 @@
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
-            <a:ln>
+            <a:ln w="0">
               <a:noFill/>
             </a:ln>
           </c:spPr>
@@ -4299,7 +4374,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="68725812"/>
+        <c:crossAx val="45017998"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="5"/>
@@ -4308,7 +4383,7 @@
         <a:solidFill>
           <a:srgbClr val="ffffff"/>
         </a:solidFill>
-        <a:ln>
+        <a:ln w="0">
           <a:solidFill>
             <a:srgbClr val="000000"/>
           </a:solidFill>
@@ -4320,7 +4395,7 @@
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
-        <a:ln>
+        <a:ln w="0">
           <a:noFill/>
         </a:ln>
       </c:spPr>
@@ -4356,7 +4431,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart86.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -4392,7 +4467,7 @@
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
-        <a:ln>
+        <a:ln w="0">
           <a:noFill/>
         </a:ln>
       </c:spPr>
@@ -4433,7 +4508,7 @@
           </c:marker>
           <c:dLbls>
             <c:txPr>
-              <a:bodyPr/>
+              <a:bodyPr wrap="square"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -4454,6 +4529,11 @@
             <c:showPercent val="0"/>
             <c:separator>; </c:separator>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:xVal>
             <c:numRef>
@@ -4608,7 +4688,7 @@
           </c:marker>
           <c:dLbls>
             <c:txPr>
-              <a:bodyPr/>
+              <a:bodyPr wrap="square"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -4629,6 +4709,11 @@
             <c:showPercent val="0"/>
             <c:separator>; </c:separator>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:xVal>
             <c:numRef>
@@ -4783,7 +4868,7 @@
           </c:marker>
           <c:dLbls>
             <c:txPr>
-              <a:bodyPr/>
+              <a:bodyPr wrap="square"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -4804,6 +4889,11 @@
             <c:showPercent val="0"/>
             <c:separator>; </c:separator>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:xVal>
             <c:numRef>
@@ -4927,11 +5017,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="23389343"/>
-        <c:axId val="98933443"/>
+        <c:axId val="67844264"/>
+        <c:axId val="83240903"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="23389343"/>
+        <c:axId val="67844264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.5"/>
@@ -4990,7 +5080,7 @@
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
-            <a:ln>
+            <a:ln w="0">
               <a:noFill/>
             </a:ln>
           </c:spPr>
@@ -5021,13 +5111,13 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="98933443"/>
+        <c:crossAx val="83240903"/>
         <c:crosses val="min"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.5"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="98933443"/>
+        <c:axId val="83240903"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="75"/>
@@ -5086,7 +5176,7 @@
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
-            <a:ln>
+            <a:ln w="0">
               <a:noFill/>
             </a:ln>
           </c:spPr>
@@ -5117,7 +5207,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="23389343"/>
+        <c:crossAx val="67844264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="5"/>
@@ -5126,7 +5216,7 @@
         <a:solidFill>
           <a:srgbClr val="ffffff"/>
         </a:solidFill>
-        <a:ln>
+        <a:ln w="0">
           <a:solidFill>
             <a:srgbClr val="000000"/>
           </a:solidFill>
@@ -5138,7 +5228,7 @@
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
-        <a:ln>
+        <a:ln w="0">
           <a:noFill/>
         </a:ln>
       </c:spPr>
@@ -5174,7 +5264,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart87.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -5210,7 +5300,7 @@
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
-        <a:ln>
+        <a:ln w="0">
           <a:noFill/>
         </a:ln>
       </c:spPr>
@@ -5251,7 +5341,7 @@
           </c:marker>
           <c:dLbls>
             <c:txPr>
-              <a:bodyPr/>
+              <a:bodyPr wrap="square"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -5272,6 +5362,11 @@
             <c:showPercent val="0"/>
             <c:separator>; </c:separator>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:xVal>
             <c:numRef>
@@ -5426,7 +5521,7 @@
           </c:marker>
           <c:dLbls>
             <c:txPr>
-              <a:bodyPr/>
+              <a:bodyPr wrap="square"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -5447,6 +5542,11 @@
             <c:showPercent val="0"/>
             <c:separator>; </c:separator>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:xVal>
             <c:numRef>
@@ -5601,7 +5701,7 @@
           </c:marker>
           <c:dLbls>
             <c:txPr>
-              <a:bodyPr/>
+              <a:bodyPr wrap="square"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -5622,6 +5722,11 @@
             <c:showPercent val="0"/>
             <c:separator>; </c:separator>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:xVal>
             <c:numRef>
@@ -5745,11 +5850,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="38519024"/>
-        <c:axId val="69710881"/>
+        <c:axId val="7272290"/>
+        <c:axId val="91773973"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="38519024"/>
+        <c:axId val="7272290"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.5"/>
@@ -5808,7 +5913,7 @@
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
-            <a:ln>
+            <a:ln w="0">
               <a:noFill/>
             </a:ln>
           </c:spPr>
@@ -5839,13 +5944,13 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="69710881"/>
+        <c:crossAx val="91773973"/>
         <c:crosses val="min"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.5"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="69710881"/>
+        <c:axId val="91773973"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="85"/>
@@ -5904,7 +6009,7 @@
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
-            <a:ln>
+            <a:ln w="0">
               <a:noFill/>
             </a:ln>
           </c:spPr>
@@ -5935,7 +6040,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="38519024"/>
+        <c:crossAx val="7272290"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5943,7 +6048,7 @@
         <a:solidFill>
           <a:srgbClr val="ffffff"/>
         </a:solidFill>
-        <a:ln>
+        <a:ln w="0">
           <a:solidFill>
             <a:srgbClr val="000000"/>
           </a:solidFill>
@@ -5955,7 +6060,7 @@
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
-        <a:ln>
+        <a:ln w="0">
           <a:noFill/>
         </a:ln>
       </c:spPr>
@@ -5991,7 +6096,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart88.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -6027,7 +6132,7 @@
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
-        <a:ln>
+        <a:ln w="0">
           <a:noFill/>
         </a:ln>
       </c:spPr>
@@ -6068,7 +6173,7 @@
           </c:marker>
           <c:dLbls>
             <c:txPr>
-              <a:bodyPr/>
+              <a:bodyPr wrap="square"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -6089,6 +6194,11 @@
             <c:showPercent val="0"/>
             <c:separator>; </c:separator>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:xVal>
             <c:numRef>
@@ -6243,7 +6353,7 @@
           </c:marker>
           <c:dLbls>
             <c:txPr>
-              <a:bodyPr/>
+              <a:bodyPr wrap="square"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -6264,6 +6374,11 @@
             <c:showPercent val="0"/>
             <c:separator>; </c:separator>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:xVal>
             <c:numRef>
@@ -6418,7 +6533,7 @@
           </c:marker>
           <c:dLbls>
             <c:txPr>
-              <a:bodyPr/>
+              <a:bodyPr wrap="square"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -6439,6 +6554,11 @@
             <c:showPercent val="0"/>
             <c:separator>; </c:separator>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:xVal>
             <c:numRef>
@@ -6562,11 +6682,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="57577808"/>
-        <c:axId val="34877836"/>
+        <c:axId val="17545917"/>
+        <c:axId val="63324577"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="57577808"/>
+        <c:axId val="17545917"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.5"/>
@@ -6625,7 +6745,7 @@
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
-            <a:ln>
+            <a:ln w="0">
               <a:noFill/>
             </a:ln>
           </c:spPr>
@@ -6656,13 +6776,13 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="34877836"/>
+        <c:crossAx val="63324577"/>
         <c:crosses val="min"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.5"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="34877836"/>
+        <c:axId val="63324577"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="90"/>
@@ -6721,7 +6841,7 @@
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
-            <a:ln>
+            <a:ln w="0">
               <a:noFill/>
             </a:ln>
           </c:spPr>
@@ -6752,7 +6872,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="57577808"/>
+        <c:crossAx val="17545917"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="10"/>
@@ -6761,7 +6881,7 @@
         <a:solidFill>
           <a:srgbClr val="ffffff"/>
         </a:solidFill>
-        <a:ln>
+        <a:ln w="0">
           <a:solidFill>
             <a:srgbClr val="000000"/>
           </a:solidFill>
@@ -6773,7 +6893,7 @@
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
-        <a:ln>
+        <a:ln w="0">
           <a:noFill/>
         </a:ln>
       </c:spPr>
@@ -6820,9 +6940,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
-      <xdr:colOff>276480</xdr:colOff>
+      <xdr:colOff>276120</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>6120</xdr:rowOff>
+      <xdr:rowOff>5760</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -6850,9 +6970,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>43</xdr:col>
-      <xdr:colOff>288000</xdr:colOff>
+      <xdr:colOff>287640</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>6120</xdr:rowOff>
+      <xdr:rowOff>5760</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -6860,8 +6980,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="26286120" y="10159920"/>
-        <a:ext cx="8952120" cy="4095360"/>
+        <a:off x="26286480" y="10159920"/>
+        <a:ext cx="8951400" cy="4095360"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -6880,9 +7000,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
-      <xdr:colOff>276480</xdr:colOff>
+      <xdr:colOff>276120</xdr:colOff>
       <xdr:row>81</xdr:row>
-      <xdr:rowOff>53640</xdr:rowOff>
+      <xdr:rowOff>53280</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -6890,8 +7010,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="17334000" y="14255640"/>
-        <a:ext cx="8951760" cy="4095360"/>
+        <a:off x="17334000" y="14256000"/>
+        <a:ext cx="8951760" cy="4094640"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -6910,9 +7030,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>43</xdr:col>
-      <xdr:colOff>288000</xdr:colOff>
+      <xdr:colOff>287640</xdr:colOff>
       <xdr:row>81</xdr:row>
-      <xdr:rowOff>53640</xdr:rowOff>
+      <xdr:rowOff>53280</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -6920,8 +7040,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="26286120" y="14255640"/>
-        <a:ext cx="8952120" cy="4095360"/>
+        <a:off x="26286480" y="14256000"/>
+        <a:ext cx="8951400" cy="4094640"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -6940,9 +7060,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
-      <xdr:colOff>276480</xdr:colOff>
+      <xdr:colOff>276120</xdr:colOff>
       <xdr:row>106</xdr:row>
-      <xdr:rowOff>101160</xdr:rowOff>
+      <xdr:rowOff>100800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -6951,7 +7071,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="17334000" y="18351360"/>
-        <a:ext cx="8951760" cy="4095360"/>
+        <a:ext cx="8951760" cy="4095000"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -6970,9 +7090,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>43</xdr:col>
-      <xdr:colOff>288000</xdr:colOff>
+      <xdr:colOff>287640</xdr:colOff>
       <xdr:row>106</xdr:row>
-      <xdr:rowOff>101160</xdr:rowOff>
+      <xdr:rowOff>100800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -6980,8 +7100,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="26286120" y="18351360"/>
-        <a:ext cx="8952120" cy="4095360"/>
+        <a:off x="26286480" y="18351360"/>
+        <a:ext cx="8951400" cy="4095000"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7000,9 +7120,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
-      <xdr:colOff>276480</xdr:colOff>
+      <xdr:colOff>276120</xdr:colOff>
       <xdr:row>131</xdr:row>
-      <xdr:rowOff>148680</xdr:rowOff>
+      <xdr:rowOff>148320</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -7011,7 +7131,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="17334000" y="22447080"/>
-        <a:ext cx="8951760" cy="4095360"/>
+        <a:ext cx="8951760" cy="4095000"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7030,9 +7150,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>43</xdr:col>
-      <xdr:colOff>288000</xdr:colOff>
+      <xdr:colOff>287640</xdr:colOff>
       <xdr:row>131</xdr:row>
-      <xdr:rowOff>148680</xdr:rowOff>
+      <xdr:rowOff>148320</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -7040,8 +7160,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="26286120" y="22447080"/>
-        <a:ext cx="8952120" cy="4095360"/>
+        <a:off x="26286480" y="22447080"/>
+        <a:ext cx="8951400" cy="4095000"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -10234,8 +10354,8 @@
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
